--- a/validation/stuffedWhipple.xlsx
+++ b/validation/stuffedWhipple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryshan/Toby Playpad Dropbox/Shannon Ryan/GitHub/pyBLOSSUM/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/shannon_ryan_deakin_edu_au/Documents/Documents/GitHub/pyBLOSSUM/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B364F08F-3525-9C4B-86CE-150167A2416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B364F08F-3525-9C4B-86CE-150167A2416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BAED199-8130-4543-AD00-F79155CF02E8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BLC" sheetId="3" r:id="rId1"/>
@@ -374,7 +374,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6937,7 +6937,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7FA7087-BD89-B84D-807E-B9B7BEBE2506}">
   <sheetPr codeName="Chart1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6948,7 +6948,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9316013" cy="6076709"/>
+    <xdr:ext cx="9277089" cy="6041199"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7301,9 +7301,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0.40389999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>0.40389999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.1</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>41.779326903828355</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.2</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>26.319326708286269</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.3</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>20.0854054249264</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.4</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>16.58013686941511</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.5</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>14.28832881477782</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.6</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>12.653012545268725</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.7</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>11.417282461367815</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.8</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>10.444831725957089</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.9</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>9.6560557811833974</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>9.0010831207790201</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1.1000000000000001</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>8.4469446574092046</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.2</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>7.9708984251839876</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.3</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>7.5567061983535924</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1.4</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>7.1924372528364291</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.5</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>6.8691120311747582</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.6</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>6.5798316770715681</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.7</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>6.3192008316415418</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.8</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>6.0829339688360236</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1.9</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>5.8675802522457214</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>5.6703270478614618</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2.1</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>5.4888569079953458</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2.2000000000000002</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>5.3212416905834461</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2.2999999999999998</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>5.1658629661835498</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2.4</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>5.0213513562315999</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.5</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>4.886539718295527</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.6</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>4.7604266035883773</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.7</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>4.6421474337587059</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.8</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>4.5309515474483355</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2.9</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>4.4261837590503896</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>4.3272694210816036</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3.1</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>4.2337022324394082</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3.2</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>4.1450342173537775</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3.3</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>4.0608674341862949</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3.4</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>3.9808470731491843</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.5</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>3.9046556770705347</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.6</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>3.8320082762285357</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.7</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>3.7626482717836902</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.8</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>3.6963439358759276</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3.9</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>3.6328854225049332</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>3.5720822036944551</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4.0999999999999996</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>3.513760861496757</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4.2</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>3.4577631791221122</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4.3</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>3.4039444846310514</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4.4000000000000004</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>3.3521722087721328</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4.5</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>3.3023246251184148</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.5999999999999996</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>3.254289745983511</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.7</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>3.207964351939915</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.8</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>3.1632531363171816</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>4.9000000000000004</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>3.1200679489815402</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>3.0783271261139489</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5.0999999999999996</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>3.0379548947070769</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5.2</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>3.0256987519016794</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5.3</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>3.0167032929943409</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5.4</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>3.007707834087002</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5.5</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>2.9987123751796636</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.6</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>2.9897169162723247</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.7</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>2.9807214573649858</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.8</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>2.9717259984576474</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5.9</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>2.9627305395503085</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>6</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>2.9537350806429696</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>6.1</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>2.9447396217356312</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>6.2</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>2.9357441628282923</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>6.3</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>2.9267487039209539</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6.4</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>2.917753245013615</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>6.5</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>2.9087577861062761</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.6</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>2.8997623271989377</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.7</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>2.8907668682915988</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.8</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>2.8817714093842599</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>6.9</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>2.8727759504769215</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>7</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>2.8637804915695826</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>7.1</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>2.8547850326622441</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>7.2</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>2.8457895737549053</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>7.3</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>2.8367941148475664</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.4</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>2.8277986559402275</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.5</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>2.8188031970328891</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.6</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>2.8098077381255502</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.7</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>2.8008122792182117</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.8</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>2.7918168203108729</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>7.9</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>2.782821361403534</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>8</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>2.7738259024961955</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>8.1</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>2.7648304435888567</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>8.1999999999999993</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>2.7558349846815182</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.3000000000000007</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>2.7468395257741793</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8.4</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>2.7378440668668405</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.5</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>2.7288486079595016</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.6</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>2.7198531490521631</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.6999999999999993</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>2.7108576901448243</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.8000000000000007</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>2.7018622312374854</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>8.9</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>2.6928667723301469</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>9</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>2.683871313422808</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>9.1</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>2.6748758545154696</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>9.1999999999999993</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>2.6658803956081307</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>9.3000000000000007</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>2.6568849367007918</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>9.4</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>2.6478894777934534</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>9.5</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>2.6388940188861145</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.6</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>2.6298985599787761</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.6999999999999993</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>2.6209031010714372</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.8000000000000007</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>2.6119076421640983</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>9.9</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>2.6029121832567599</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>10</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>2.593916724349421</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>10.1</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>2.5849212654420821</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>10.199999999999999</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2.5759258065347437</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>10.3</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>2.5669303476274048</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10.4</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>2.5579348887200659</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10.5</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>2.5489394298127275</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.6</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>2.5399439709053886</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.7</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>2.5309485119980502</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.8</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>2.5219530530907113</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>10.9</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>2.5129575941833724</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>11</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>2.503962135276034</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>11.1</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>2.4949666763686951</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>11.2</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>2.4859712174613566</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>11.3</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>2.4769757585540177</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>11.4</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>2.4679802996466789</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11.5</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>2.4589848407393404</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.6</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>2.4499893818320015</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.7</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>2.4409939229246627</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.8</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>2.4319984640173242</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>11.9</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>2.4230030051099853</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>12</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>2.4140075462026465</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>12.1</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>2.405012087295308</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>12.2</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>2.3960166283879691</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>12.3</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>2.3870211694806303</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12.4</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>2.3780257105732918</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12.5</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>2.3690302516659529</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.6</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>2.3600347927586141</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.7</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>2.3510393338512756</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.8</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>2.3420438749439367</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>12.9</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>2.3330484160365978</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>13</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>2.3240529571292594</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>13.1</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>2.315057498221921</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>13.2</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>2.3060620393145821</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>13.3</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>2.2970665804072432</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>13.4</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>2.2880711214999048</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>13.5</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>2.2790756625925659</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>13.6</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>2.270080203685227</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.7</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>2.2610847447778886</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>13.8</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>2.2520892858705497</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>13.9</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>2.2430938269632108</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>14</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>2.2340983680558724</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>14.1</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>2.2251029091485335</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>14.2</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>2.2161074502411946</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>14.3</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>2.2071119913338562</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>14.4</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>2.1981165324265173</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>14.5</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>2.1891210735191784</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>14.6</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>2.18012561461184</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>14.7</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>2.1711301557045011</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>14.8</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>2.1621346967971622</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>14.9</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>2.1531392378898238</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>15</v>
       </c>
@@ -9647,16 +9647,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9701,13 +9701,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>0.40389999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>0.40389999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -9885,13 +9885,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.1</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>41.823720999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.2</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>26.347293199999999</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.3</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>20.106747899999998</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.4</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>16.597754699999999</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>14.3035114</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.6</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>12.666457400000001</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.7</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>11.429414299999999</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.8</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>10.455930199999999</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.9</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>9.6663161599999992</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>9.0106475400000008</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1.1000000000000001</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>8.4559202599999992</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1.2</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>7.9793681799999998</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.3</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>7.56473584</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.4</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>7.20007983</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1.5</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>6.8764110499999997</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.6</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>6.5868233099999998</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.7</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>6.3259155199999997</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.8</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>6.0893975999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.9</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>5.8738150600000001</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>5.6763522499999999</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2.1</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>5.4946892900000002</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2.2000000000000002</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>5.3268959599999999</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2.2999999999999998</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>5.1713521399999998</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2.4</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>5.0266869700000001</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2.5</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>4.8917320799999997</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.6</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>4.7654849600000002</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.7</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>4.6470801100000001</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.8</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>4.5357660700000002</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.9</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>4.4308869599999996</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>4.3318675100000004</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3.1</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>4.2382008999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3.2</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>4.1494386700000003</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3.3</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>4.06518245</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3.4</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>3.9850770600000001</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3.5</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>3.9088047100000001</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.6</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>3.8360801100000002</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.7</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>3.7666464099999999</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.8</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>3.7002716200000001</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.9</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>3.6367456699999998</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>4</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>3.5758778499999999</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4.0999999999999996</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>3.51749453</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4.2</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>3.4614373500000002</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4.3</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>3.4075614700000001</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4.4000000000000004</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>3.3557341799999998</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4.5</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>3.30583363</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4.5999999999999996</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>3.2577477099999999</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.7</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>3.2113730899999999</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.8</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>3.1666143600000001</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.9000000000000004</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>3.12338329</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>3.0815981099999998</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5.0999999999999996</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>3.0411829799999999</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5.2</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>3.0289088400000002</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5.3</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>3.0198982499999998</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5.4</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>3.0108876599999999</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5.5</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>3.0018770699999999</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5.6</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>2.9928664899999999</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.7</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>2.9838559</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.8</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>2.9748453100000001</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.9</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>2.9658347200000001</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>6</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>2.9568241400000002</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>6.1</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>2.9478135499999998</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>6.2</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>2.9388029599999999</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>6.3</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>2.9297923699999999</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>6.4</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>2.9207817899999999</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6.5</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>2.9117712</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>6.6</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>2.9027606100000001</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.7</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>2.8937500300000001</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.8</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>2.8847394400000002</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.9</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>2.8757288499999998</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>7</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>2.8667182599999999</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>7.1</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>2.8577076799999999</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>7.2</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>2.8486970899999999</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>7.3</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>2.8396865</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>7.4</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>2.8306759100000001</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.5</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>2.8216653300000001</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.6</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>2.8126547400000002</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.7</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>2.8036441499999998</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.8</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>2.7946335599999999</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.9</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>2.7856229799999999</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>8</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>2.7766123899999999</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>8.1</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>2.7676018</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>8.1999999999999993</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>2.7585912100000001</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>8.3000000000000007</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>2.7495806300000001</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8.4</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>2.7405700400000002</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8.5</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>2.7315594499999998</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.6</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>2.7225488599999998</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.6999999999999993</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>2.7135382799999999</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.8000000000000007</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>2.7045276899999999</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.9</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>2.6955171</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>9</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>2.6865065100000001</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>9.1</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>2.6774959300000001</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>9.1999999999999993</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>2.6684853400000001</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>9.3000000000000007</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>2.6594747500000002</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>9.4</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>2.6504641599999998</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>9.5</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>2.6414535799999999</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>9.6</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>2.6324429899999999</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.6999999999999993</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>2.6234324</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.8000000000000007</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>2.6144218100000001</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.9</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>2.6054112300000001</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>10</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>2.5964006400000001</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>10.1</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>2.5873900500000002</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>10.199999999999999</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>2.5783794599999998</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>10.3</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>2.5693688799999999</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>10.4</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>2.5603582899999999</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10.5</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>2.5513477</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10.6</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>2.5423371100000001</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.7</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>2.5333265300000001</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.8</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>2.5243159400000001</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.9</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>2.5153053500000002</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>11</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2.5062947599999998</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>11.1</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>2.4972841799999999</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>11.2</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>2.4882735899999999</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>11.3</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>2.479263</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>11.4</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>2.4702524100000001</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>11.5</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>2.4612418300000001</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11.6</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>2.4522312400000001</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.7</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>2.4432206500000002</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.8</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>2.4342100599999998</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.9</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>2.4251994799999999</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>12</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>2.4161888899999999</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>12.1</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>2.4071783</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>12.2</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>2.3981677100000001</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>12.3</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>2.3891571300000001</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>12.4</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>2.3801465400000001</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12.5</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>2.3711359500000002</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12.6</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>2.3621253599999998</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.7</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>2.3531147799999999</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.8</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>2.3441041899999999</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.9</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>2.3350936</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>13</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>2.3260830100000001</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>13.1</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>2.3170724300000001</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>13.2</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>2.3080618400000001</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>13.3</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>2.2990512500000002</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>13.4</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>2.2900406699999998</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>13.5</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>2.2810300799999998</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>13.6</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>2.2720194899999999</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>13.7</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>2.2630089</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.8</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>2.25399832</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>13.9</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>2.2449877300000001</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>14</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>2.2359771400000001</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>14.1</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>2.2269665500000002</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>14.2</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>2.2179559700000002</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>14.3</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>2.2089453799999998</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>14.4</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>2.1999347899999999</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>14.5</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>2.1909242</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>14.6</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>2.18191362</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>14.7</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>2.1729030300000001</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>14.8</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>2.1638924400000001</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>14.9</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>2.1548818500000002</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>15</v>
       </c>
@@ -12017,7 +12017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12030,294 +12030,294 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>83</v>
       </c>
